--- a/data/trans_bre/P5_5-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_5-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,18</t>
+          <t>-20,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,31%</t>
+          <t>-5,91%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-11,24%</t>
+          <t>-34,15%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 11,54</t>
+          <t>-22,55; 21,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,64; 11,03</t>
+          <t>-48,24; 1,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-32,08; 34,36</t>
+          <t>-42,01; 79,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-40,27; 30,76</t>
+          <t>-62,67; 5,68</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,52</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,33</t>
+          <t>-5,17</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-8,92%</t>
+          <t>-9,44%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,39%</t>
+          <t>-9,99%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 4,27</t>
+          <t>-16,62; 6,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 3,81</t>
+          <t>-17,72; 6,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 9,48</t>
+          <t>-29,14; 13,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,84; 8,18</t>
+          <t>-30,16; 13,37</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>-4,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,74%</t>
+          <t>-9,33%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,59%</t>
+          <t>-8,27%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 6,14</t>
+          <t>-15,26; 8,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 9,33</t>
+          <t>-14,52; 8,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,4; 16,57</t>
+          <t>-30,07; 23,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,01; 26,06</t>
+          <t>-29,92; 23,82</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,44%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 1,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 1,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 4,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 3,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-4,44</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-7,01</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-9,37%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-13,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-12,06; 3,7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-15,0; 1,34</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-23,05; 8,47</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-27,2; 2,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P5_5-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_5-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,55</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-20,49</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,91%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-34,15%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.551851920328507</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-15.0948421930801</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.05906944589530268</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.2749330794119371</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-22,55; 21,94</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-48,24; 1,46</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-42,01; 79,97</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-62,67; 5,68</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-22.54723452926185</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-40.50274737790721</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.4200629232309607</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.5802434069834126</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>21.94246327564338</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.761187000299051</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.799728999801234</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.1968438874347025</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-4,8</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-5,17</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-9,44%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-9,99%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-16,62; 6,38</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-17,72; 6,12</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-29,14; 13,73</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-30,16; 13,37</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-4.799489254219763</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.365463999087014</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.0943655429863252</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.04828044763331195</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-4,16</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,66</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-9,33%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-8,27%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-16.62043066004263</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-15.15423470945228</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2913966996943229</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.2713622401116104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-15,26; 8,38</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-14,52; 8,87</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-30,07; 23,12</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-29,92; 23,82</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.382256769997061</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.090569526498053</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1372775479747173</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.2065574498332123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-4.158758313538863</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-4.937042081570536</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.0932613266007519</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.1071188562903759</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-15.25977340405342</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-17.60341298976387</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.3006580116957249</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.3232318240889506</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.378699353555593</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.978242651161432</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.2312032726984885</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.216957766596947</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-4,44</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-7,01</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-9,37%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-13,99%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-12,06; 3,7</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-15,0; 1,34</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-23,05; 8,47</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-27,2; 2,68</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-4.444271290079521</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-5.219218701109584</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.09368268402797286</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.1071709398355296</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-12.06103197903074</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-13.36156614598825</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2305330439554937</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.2507112078531973</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.702569972644348</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.842120090871571</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.08472967496625286</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.06517960822714523</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
